--- a/results/mp/tinybert/corona/confidence/168/desired-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/desired-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,202 +43,199 @@
     <t>crude</t>
   </si>
   <si>
-    <t>warning</t>
+    <t>crisis</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
+    <t>demand</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>support</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>increased</t>
+    <t>online</t>
   </si>
   <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>online</t>
+    <t>our</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>store</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>!</t>
+    <t>you</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
     <t>and</t>
   </si>
   <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
     <t>the</t>
   </si>
   <si>
     <t>to</t>
   </si>
   <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
 </sst>
 </file>
@@ -596,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -604,10 +601,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -665,13 +662,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.96</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -686,16 +683,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K3">
-        <v>0.96875</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -707,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -715,13 +712,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9333333333333333</v>
+        <v>0.7602739726027398</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>222</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>222</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -733,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -765,13 +762,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8823529411764706</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -783,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K5">
-        <v>0.95</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L5">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="M5">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -815,13 +812,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8116883116883117</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C6">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -833,19 +830,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>0.9444444444444444</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -857,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -865,13 +862,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.75</v>
+        <v>0.3468992248062016</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -883,19 +880,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>337</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K7">
-        <v>0.9375</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L7">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="M7">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -907,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -915,13 +912,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7142857142857143</v>
+        <v>0.3439153439153439</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -933,19 +930,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>124</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>0.9166666666666666</v>
+        <v>0.8732394366197183</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -957,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -965,13 +962,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5714285714285714</v>
+        <v>0.2684563758389262</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -983,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>0.8888888888888888</v>
+        <v>0.8671875</v>
       </c>
       <c r="L9">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="M9">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1007,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1015,13 +1012,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5665236051502146</v>
+        <v>0.1222222222222222</v>
       </c>
       <c r="C10">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="D10">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1033,19 +1030,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>101</v>
+        <v>316</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K10">
-        <v>0.8823529411764706</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L10">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="M10">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1057,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1065,187 +1062,115 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4827586206896552</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>342</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11">
+        <v>0.8627450980392157</v>
+      </c>
+      <c r="L11">
+        <v>44</v>
+      </c>
+      <c r="M11">
+        <v>44</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12">
+        <v>0.8611111111111112</v>
+      </c>
+      <c r="L12">
         <v>31</v>
       </c>
-      <c r="K11">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="L11">
-        <v>15</v>
-      </c>
-      <c r="M11">
-        <v>15</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.3695652173913043</v>
-      </c>
-      <c r="C12">
-        <v>17</v>
-      </c>
-      <c r="D12">
-        <v>17</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
+      <c r="M12">
+        <v>31</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="L13">
+        <v>33</v>
+      </c>
+      <c r="M13">
+        <v>33</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12">
-        <v>0.875</v>
-      </c>
-      <c r="L12">
-        <v>49</v>
-      </c>
-      <c r="M12">
-        <v>49</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.313953488372093</v>
-      </c>
-      <c r="C13">
-        <v>27</v>
-      </c>
-      <c r="D13">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>59</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13">
-        <v>0.8703703703703703</v>
-      </c>
-      <c r="L13">
-        <v>47</v>
-      </c>
-      <c r="M13">
-        <v>47</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.25</v>
-      </c>
-      <c r="C14">
-        <v>20</v>
-      </c>
-      <c r="D14">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>60</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="K14">
-        <v>0.8627450980392157</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L14">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="M14">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1257,45 +1182,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.2363636363636364</v>
-      </c>
-      <c r="C15">
-        <v>26</v>
-      </c>
-      <c r="D15">
-        <v>26</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>84</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K15">
-        <v>0.8620689655172413</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L15">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="M15">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1311,41 +1212,17 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.2148148148148148</v>
-      </c>
-      <c r="C16">
-        <v>29</v>
-      </c>
-      <c r="D16">
-        <v>29</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>106</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K16">
-        <v>0.8421052631578947</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L16">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="M16">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1357,21 +1234,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K17">
-        <v>0.84</v>
+        <v>0.79375</v>
       </c>
       <c r="L17">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="M17">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1383,21 +1260,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K18">
-        <v>0.8235294117647058</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L18">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="M18">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1409,21 +1286,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K19">
-        <v>0.8205128205128205</v>
+        <v>0.75</v>
       </c>
       <c r="L19">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1435,21 +1312,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K20">
-        <v>0.8</v>
+        <v>0.7467362924281984</v>
       </c>
       <c r="L20">
-        <v>20</v>
+        <v>286</v>
       </c>
       <c r="M20">
-        <v>20</v>
+        <v>286</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1461,21 +1338,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K21">
-        <v>0.7945205479452054</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L21">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="M21">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1487,21 +1364,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K22">
-        <v>0.7586206896551724</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="L22">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1513,21 +1390,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K23">
-        <v>0.7575757575757576</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1539,21 +1416,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K24">
-        <v>0.7370892018779343</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L24">
-        <v>157</v>
+        <v>66</v>
       </c>
       <c r="M24">
-        <v>157</v>
+        <v>66</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1565,21 +1442,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K25">
-        <v>0.7307692307692307</v>
+        <v>0.68</v>
       </c>
       <c r="L25">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="M25">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1591,21 +1468,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>0.7</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L26">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="M26">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1617,21 +1494,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>0.6847826086956522</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="L27">
-        <v>63</v>
+        <v>190</v>
       </c>
       <c r="M27">
-        <v>63</v>
+        <v>190</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1643,21 +1520,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>29</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>0.6589147286821705</v>
+        <v>0.6179775280898876</v>
       </c>
       <c r="L28">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="M28">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1669,21 +1546,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>0.6363636363636364</v>
+        <v>0.6</v>
       </c>
       <c r="L29">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="M29">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1695,21 +1572,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>8</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="L30">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="M30">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1721,21 +1598,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>0.6071428571428571</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L31">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="M31">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1747,21 +1624,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>0.6</v>
+        <v>0.5732217573221757</v>
       </c>
       <c r="L32">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="M32">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1773,21 +1650,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>0.5833333333333334</v>
+        <v>0.5205479452054794</v>
       </c>
       <c r="L33">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="M33">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1799,21 +1676,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>0.5675675675675675</v>
+        <v>0.4375</v>
       </c>
       <c r="L34">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M34">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1825,21 +1702,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K35">
-        <v>0.5</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L35">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M35">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1851,21 +1728,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K36">
-        <v>0.4857142857142857</v>
+        <v>0.1028708133971292</v>
       </c>
       <c r="L36">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="M36">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1877,21 +1754,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>18</v>
+        <v>375</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K37">
-        <v>0.4736842105263158</v>
+        <v>0.1009615384615385</v>
       </c>
       <c r="L37">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M37">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1903,21 +1780,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>20</v>
+        <v>374</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K38">
-        <v>0.4516129032258064</v>
+        <v>0.07655502392344497</v>
       </c>
       <c r="L38">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="M38">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1929,73 +1806,73 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>17</v>
+        <v>386</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K39">
-        <v>0.07177033492822966</v>
+        <v>0.06967213114754098</v>
       </c>
       <c r="L39">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M39">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>194</v>
+        <v>454</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K40">
-        <v>0.0707070707070707</v>
+        <v>0.05566801619433198</v>
       </c>
       <c r="L40">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="M40">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>184</v>
+        <v>933</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K41">
-        <v>0.05868544600938967</v>
+        <v>0.05257270693512305</v>
       </c>
       <c r="L41">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="M41">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2007,21 +1884,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>401</v>
+        <v>847</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K42">
-        <v>0.05609756097560976</v>
+        <v>0.05216426193118757</v>
       </c>
       <c r="L42">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="M42">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2033,21 +1910,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>387</v>
+        <v>854</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K43">
-        <v>0.04218362282878412</v>
+        <v>0.04833333333333333</v>
       </c>
       <c r="L43">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="M43">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2059,47 +1936,47 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>386</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K44">
-        <v>0.03766816143497758</v>
+        <v>0.04041570438799076</v>
       </c>
       <c r="L44">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="M44">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="N44">
-        <v>0.84</v>
+        <v>0.97</v>
       </c>
       <c r="O44">
-        <v>0.16</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>1073</v>
+        <v>831</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K45">
-        <v>0.03296703296703297</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L45">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="M45">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="N45">
         <v>0.9399999999999999</v>
@@ -2111,241 +1988,345 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>440</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K46">
-        <v>0.03153153153153153</v>
+        <v>0.03271028037383177</v>
       </c>
       <c r="L46">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="M46">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>430</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K47">
-        <v>0.02644230769230769</v>
+        <v>0.02998500749625187</v>
       </c>
       <c r="L47">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="M47">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="N47">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O47">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>810</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K48">
-        <v>0.02588996763754045</v>
+        <v>0.02954545454545454</v>
       </c>
       <c r="L48">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M48">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N48">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="O48">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>903</v>
+        <v>854</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K49">
-        <v>0.02323125659978881</v>
+        <v>0.02763819095477387</v>
       </c>
       <c r="L49">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="M49">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="N49">
-        <v>0.79</v>
+        <v>0.96</v>
       </c>
       <c r="O49">
-        <v>0.21</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>925</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K50">
-        <v>0.0171112229491696</v>
+        <v>0.0227439471753485</v>
       </c>
       <c r="L50">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M50">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N50">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>1953</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K51">
-        <v>0.01490825688073395</v>
+        <v>0.0219409282700422</v>
       </c>
       <c r="L51">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="M51">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="N51">
-        <v>0.93</v>
+        <v>0.85</v>
       </c>
       <c r="O51">
-        <v>0.06999999999999995</v>
+        <v>0.15</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>1718</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K52">
-        <v>0.008991650610147719</v>
+        <v>0.02144718380436961</v>
       </c>
       <c r="L52">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="M52">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="N52">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O52">
-        <v>0.33</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>1543</v>
+        <v>4882</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K53">
-        <v>0.008788449466415568</v>
+        <v>0.0212489158716392</v>
       </c>
       <c r="L53">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="M53">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="N53">
-        <v>0.78</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O53">
-        <v>0.22</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>1579</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K54">
-        <v>0.007310704960835509</v>
+        <v>0.01977127350261679</v>
       </c>
       <c r="L54">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="M54">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="N54">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O54">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>1901</v>
+        <v>5057</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K55">
+        <v>0.01689814814814815</v>
+      </c>
+      <c r="L55">
+        <v>73</v>
+      </c>
+      <c r="M55">
+        <v>81</v>
+      </c>
+      <c r="N55">
+        <v>0.9</v>
+      </c>
+      <c r="O55">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>4247</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K56">
+        <v>0.01337792642140468</v>
+      </c>
+      <c r="L56">
+        <v>32</v>
+      </c>
+      <c r="M56">
+        <v>34</v>
+      </c>
+      <c r="N56">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O56">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K57">
+        <v>0.01323007421748951</v>
+      </c>
+      <c r="L57">
+        <v>41</v>
+      </c>
+      <c r="M57">
+        <v>49</v>
+      </c>
+      <c r="N57">
+        <v>0.84</v>
+      </c>
+      <c r="O57">
+        <v>0.16</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K58">
+        <v>0.01127466332602568</v>
+      </c>
+      <c r="L58">
+        <v>36</v>
+      </c>
+      <c r="M58">
+        <v>44</v>
+      </c>
+      <c r="N58">
+        <v>0.82</v>
+      </c>
+      <c r="O58">
+        <v>0.18</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>3157</v>
       </c>
     </row>
   </sheetData>
